--- a/Calendar_Template.xlsx
+++ b/Calendar_Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulpallesen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A412A8DA-8C61-FF4F-BA0B-9CC8AA9BDC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE2B38E-B466-A34F-ADE8-BBE10A930838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{DD08DFD7-F757-6F4F-853E-B722FD167EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>Course Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>TRANSPARENT</t>
+  </si>
+  <si>
+    <t>BBUS23</t>
+  </si>
+  <si>
+    <t>MBAA22</t>
+  </si>
+  <si>
+    <t>Welcome to course</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Trimester Orientation</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>9:30am</t>
+  </si>
+  <si>
+    <t>8:00am</t>
+  </si>
+  <si>
+    <t>11:30am</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>First lecture</t>
+  </si>
+  <si>
+    <t>Frist Orientation</t>
+  </si>
+  <si>
+    <t>https:www.torrens.edu.au</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +496,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B196F-4EAC-5C42-918D-6B09AB48F696}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>B3&amp;E3&amp;J3</f>
+        <v>BBUS2345884Sydney, Australia</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45884</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45884</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>B4&amp;E4&amp;J4</f>
+        <v>MBAA2245885Sydney, Australia</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45885</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45885</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>